--- a/data/text.csv.xlsx
+++ b/data/text.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/lady1602_ox_ac_uk/Documents/Covid Period/SubmissionBMJ/OSF_data_scripts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/sjoh4768_ox_ac_uk/Documents/DPhil/PeriodsCOVID/COVID-19-vaccine-and-menstrual-side-effects-in-the-UK/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5DCF0F3-5F9D-49D3-911A-7A55784F10F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E5DCF0F3-5F9D-49D3-911A-7A55784F10F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F06E10FE-DEE0-614F-B50A-97E8C7BB191F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1044193E-E742-43D0-AD3F-B99A1B62305D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12220" xr2:uid="{1044193E-E742-43D0-AD3F-B99A1B62305D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -4237,7 +4237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4539,9 +4539,12 @@
       <selection sqref="A1:L654"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="99.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4579,7 +4582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -4617,7 +4620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -4655,7 +4658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -4693,7 +4696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>38</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
@@ -4769,7 +4772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
@@ -4807,7 +4810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
@@ -4845,7 +4848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
@@ -4921,7 +4924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>62</v>
       </c>
@@ -4959,7 +4962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>69</v>
       </c>
@@ -5035,7 +5038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>72</v>
       </c>
@@ -5073,7 +5076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
@@ -5111,7 +5114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>77</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>79</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>81</v>
       </c>
@@ -5225,7 +5228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>83</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
@@ -5301,7 +5304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>88</v>
       </c>
@@ -5339,7 +5342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>95</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
@@ -5453,7 +5456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>102</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>105</v>
       </c>
@@ -5529,7 +5532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>107</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>111</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>115</v>
       </c>
@@ -5643,7 +5646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>119</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>122</v>
       </c>
@@ -5719,7 +5722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>126</v>
       </c>
@@ -5757,7 +5760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>128</v>
       </c>
@@ -5795,7 +5798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>130</v>
       </c>
@@ -5833,7 +5836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>132</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>135</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>138</v>
       </c>
@@ -5947,7 +5950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>140</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>142</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>144</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>146</v>
       </c>
@@ -6099,7 +6102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>148</v>
       </c>
@@ -6137,7 +6140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>150</v>
       </c>
@@ -6175,7 +6178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>153</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>155</v>
       </c>
@@ -6251,7 +6254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>157</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>160</v>
       </c>
@@ -6327,7 +6330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>162</v>
       </c>
@@ -6365,7 +6368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>164</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>166</v>
       </c>
@@ -6441,7 +6444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>169</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>171</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>173</v>
       </c>
@@ -6555,7 +6558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>175</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>178</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>181</v>
       </c>
@@ -6669,7 +6672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>182</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>185</v>
       </c>
@@ -6745,7 +6748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>187</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>190</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>192</v>
       </c>
@@ -6859,7 +6862,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>195</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>197</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>199</v>
       </c>
@@ -6973,7 +6976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>201</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>203</v>
       </c>
@@ -7049,7 +7052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>205</v>
       </c>
@@ -7087,7 +7090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>207</v>
       </c>
@@ -7125,7 +7128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>209</v>
       </c>
@@ -7163,7 +7166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>211</v>
       </c>
@@ -7201,7 +7204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>213</v>
       </c>
@@ -7239,7 +7242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>215</v>
       </c>
@@ -7277,7 +7280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>217</v>
       </c>
@@ -7315,7 +7318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>218</v>
       </c>
@@ -7353,7 +7356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>220</v>
       </c>
@@ -7391,7 +7394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>223</v>
       </c>
@@ -7429,7 +7432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>225</v>
       </c>
@@ -7467,7 +7470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>227</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>229</v>
       </c>
@@ -7543,7 +7546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>232</v>
       </c>
@@ -7581,7 +7584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>234</v>
       </c>
@@ -7619,7 +7622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>237</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>239</v>
       </c>
@@ -7695,7 +7698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>241</v>
       </c>
@@ -7733,7 +7736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>243</v>
       </c>
@@ -7771,7 +7774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>245</v>
       </c>
@@ -7809,7 +7812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>247</v>
       </c>
@@ -7847,7 +7850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>249</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>251</v>
       </c>
@@ -7923,7 +7926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>254</v>
       </c>
@@ -7961,7 +7964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>257</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>259</v>
       </c>
@@ -8037,7 +8040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>262</v>
       </c>
@@ -8075,7 +8078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>264</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>266</v>
       </c>
@@ -8151,7 +8154,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>269</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>271</v>
       </c>
@@ -8227,7 +8230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>273</v>
       </c>
@@ -8265,7 +8268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>275</v>
       </c>
@@ -8303,7 +8306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>277</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>280</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>282</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>284</v>
       </c>
@@ -8455,7 +8458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>286</v>
       </c>
@@ -8493,7 +8496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>288</v>
       </c>
@@ -8531,7 +8534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>290</v>
       </c>
@@ -8569,7 +8572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>292</v>
       </c>
@@ -8607,7 +8610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>294</v>
       </c>
@@ -8645,7 +8648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>296</v>
       </c>
@@ -8683,7 +8686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>298</v>
       </c>
@@ -8721,7 +8724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>300</v>
       </c>
@@ -8759,7 +8762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>302</v>
       </c>
@@ -8797,7 +8800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>304</v>
       </c>
@@ -8835,7 +8838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>306</v>
       </c>
@@ -8873,7 +8876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>308</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>310</v>
       </c>
@@ -8949,7 +8952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>312</v>
       </c>
@@ -8987,7 +8990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>315</v>
       </c>
@@ -9025,7 +9028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>316</v>
       </c>
@@ -9063,7 +9066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>318</v>
       </c>
@@ -9101,7 +9104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>320</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>322</v>
       </c>
@@ -9177,7 +9180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>324</v>
       </c>
@@ -9215,7 +9218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>326</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>328</v>
       </c>
@@ -9291,7 +9294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>330</v>
       </c>
@@ -9329,7 +9332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>331</v>
       </c>
@@ -9367,7 +9370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>332</v>
       </c>
@@ -9405,7 +9408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>334</v>
       </c>
@@ -9443,7 +9446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>336</v>
       </c>
@@ -9481,7 +9484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>338</v>
       </c>
@@ -9519,7 +9522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>340</v>
       </c>
@@ -9557,7 +9560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>342</v>
       </c>
@@ -9595,7 +9598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>344</v>
       </c>
@@ -9633,7 +9636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>345</v>
       </c>
@@ -9671,7 +9674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>346</v>
       </c>
@@ -9709,7 +9712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>348</v>
       </c>
@@ -9747,7 +9750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>350</v>
       </c>
@@ -9785,7 +9788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>352</v>
       </c>
@@ -9823,7 +9826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>354</v>
       </c>
@@ -9861,7 +9864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>356</v>
       </c>
@@ -9899,7 +9902,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>359</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>370</v>
       </c>
@@ -9975,7 +9978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>372</v>
       </c>
@@ -10013,7 +10016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>374</v>
       </c>
@@ -10051,7 +10054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>375</v>
       </c>
@@ -10089,7 +10092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>377</v>
       </c>
@@ -10127,7 +10130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>379</v>
       </c>
@@ -10165,7 +10168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>381</v>
       </c>
@@ -10203,7 +10206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>383</v>
       </c>
@@ -10241,7 +10244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>385</v>
       </c>
@@ -10279,7 +10282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>387</v>
       </c>
@@ -10317,7 +10320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>389</v>
       </c>
@@ -10355,7 +10358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>391</v>
       </c>
@@ -10393,7 +10396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>393</v>
       </c>
@@ -10431,7 +10434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>395</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>397</v>
       </c>
@@ -10507,7 +10510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>399</v>
       </c>
@@ -10545,7 +10548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>400</v>
       </c>
@@ -10583,7 +10586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>401</v>
       </c>
@@ -10621,7 +10624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>403</v>
       </c>
@@ -10659,7 +10662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>405</v>
       </c>
@@ -10697,7 +10700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>407</v>
       </c>
@@ -10735,7 +10738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>409</v>
       </c>
@@ -10773,7 +10776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>411</v>
       </c>
@@ -10811,7 +10814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>413</v>
       </c>
@@ -10849,7 +10852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>415</v>
       </c>
@@ -10887,7 +10890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>417</v>
       </c>
@@ -10925,7 +10928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>419</v>
       </c>
@@ -10963,7 +10966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>421</v>
       </c>
@@ -11001,7 +11004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>423</v>
       </c>
@@ -11039,7 +11042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>425</v>
       </c>
@@ -11077,7 +11080,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>427</v>
       </c>
@@ -11115,7 +11118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>429</v>
       </c>
@@ -11153,7 +11156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>431</v>
       </c>
@@ -11191,7 +11194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>433</v>
       </c>
@@ -11229,7 +11232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>435</v>
       </c>
@@ -11267,7 +11270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>437</v>
       </c>
@@ -11305,7 +11308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>439</v>
       </c>
@@ -11343,7 +11346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>441</v>
       </c>
@@ -11381,7 +11384,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>443</v>
       </c>
@@ -11419,7 +11422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>445</v>
       </c>
@@ -11457,7 +11460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>447</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>449</v>
       </c>
@@ -11533,7 +11536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>451</v>
       </c>
@@ -11571,7 +11574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>453</v>
       </c>
@@ -11609,7 +11612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>455</v>
       </c>
@@ -11647,7 +11650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>457</v>
       </c>
@@ -11685,7 +11688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>459</v>
       </c>
@@ -11723,7 +11726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>461</v>
       </c>
@@ -11761,7 +11764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>463</v>
       </c>
@@ -11799,7 +11802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>465</v>
       </c>
@@ -11837,7 +11840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>467</v>
       </c>
@@ -11875,7 +11878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>469</v>
       </c>
@@ -11913,7 +11916,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>471</v>
       </c>
@@ -11951,7 +11954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>473</v>
       </c>
@@ -11989,7 +11992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>475</v>
       </c>
@@ -12027,7 +12030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>477</v>
       </c>
@@ -12065,7 +12068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>479</v>
       </c>
@@ -12103,7 +12106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>481</v>
       </c>
@@ -12141,7 +12144,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>483</v>
       </c>
@@ -12179,7 +12182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>485</v>
       </c>
@@ -12217,7 +12220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
         <v>487</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>489</v>
       </c>
@@ -12293,7 +12296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>491</v>
       </c>
@@ -12331,7 +12334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>493</v>
       </c>
@@ -12369,7 +12372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>495</v>
       </c>
@@ -12407,7 +12410,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>497</v>
       </c>
@@ -12445,7 +12448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
         <v>506</v>
       </c>
@@ -12483,7 +12486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>508</v>
       </c>
@@ -12521,7 +12524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>510</v>
       </c>
@@ -12559,7 +12562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>512</v>
       </c>
@@ -12597,7 +12600,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>514</v>
       </c>
@@ -12635,7 +12638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>516</v>
       </c>
@@ -12673,7 +12676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>518</v>
       </c>
@@ -12711,7 +12714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>520</v>
       </c>
@@ -12749,7 +12752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>522</v>
       </c>
@@ -12787,7 +12790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>524</v>
       </c>
@@ -12825,7 +12828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>526</v>
       </c>
@@ -12863,7 +12866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>528</v>
       </c>
@@ -12901,7 +12904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
         <v>530</v>
       </c>
@@ -12939,7 +12942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>532</v>
       </c>
@@ -12977,7 +12980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>534</v>
       </c>
@@ -13015,7 +13018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>536</v>
       </c>
@@ -13053,7 +13056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>538</v>
       </c>
@@ -13091,7 +13094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>540</v>
       </c>
@@ -13129,7 +13132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>542</v>
       </c>
@@ -13167,7 +13170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>544</v>
       </c>
@@ -13205,7 +13208,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>546</v>
       </c>
@@ -13243,7 +13246,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>548</v>
       </c>
@@ -13281,7 +13284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>550</v>
       </c>
@@ -13319,7 +13322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>552</v>
       </c>
@@ -13357,7 +13360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>554</v>
       </c>
@@ -13395,7 +13398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>557</v>
       </c>
@@ -13433,7 +13436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>559</v>
       </c>
@@ -13471,7 +13474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>561</v>
       </c>
@@ -13509,7 +13512,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>563</v>
       </c>
@@ -13547,7 +13550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>565</v>
       </c>
@@ -13585,7 +13588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>567</v>
       </c>
@@ -13623,7 +13626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>568</v>
       </c>
@@ -13661,7 +13664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>570</v>
       </c>
@@ -13699,7 +13702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>572</v>
       </c>
@@ -13737,7 +13740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>574</v>
       </c>
@@ -13775,7 +13778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>576</v>
       </c>
@@ -13813,7 +13816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>578</v>
       </c>
@@ -13851,7 +13854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>580</v>
       </c>
@@ -13889,7 +13892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>582</v>
       </c>
@@ -13927,7 +13930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>584</v>
       </c>
@@ -13965,7 +13968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>586</v>
       </c>
@@ -14003,7 +14006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>588</v>
       </c>
@@ -14041,7 +14044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>590</v>
       </c>
@@ -14079,7 +14082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>592</v>
       </c>
@@ -14117,7 +14120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>594</v>
       </c>
@@ -14155,7 +14158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>596</v>
       </c>
@@ -14193,7 +14196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>598</v>
       </c>
@@ -14231,7 +14234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>600</v>
       </c>
@@ -14269,7 +14272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>602</v>
       </c>
@@ -14307,7 +14310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>604</v>
       </c>
@@ -14345,7 +14348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
         <v>606</v>
       </c>
@@ -14383,7 +14386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>608</v>
       </c>
@@ -14421,7 +14424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>610</v>
       </c>
@@ -14459,7 +14462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>611</v>
       </c>
@@ -14497,7 +14500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>613</v>
       </c>
@@ -14535,7 +14538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>615</v>
       </c>
@@ -14573,7 +14576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>617</v>
       </c>
@@ -14611,7 +14614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>619</v>
       </c>
@@ -14649,7 +14652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>622</v>
       </c>
@@ -14687,7 +14690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>623</v>
       </c>
@@ -14725,7 +14728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>625</v>
       </c>
@@ -14763,7 +14766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>627</v>
       </c>
@@ -14801,7 +14804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>629</v>
       </c>
@@ -14839,7 +14842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>631</v>
       </c>
@@ -14877,7 +14880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>633</v>
       </c>
@@ -14915,7 +14918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>635</v>
       </c>
@@ -14953,7 +14956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>637</v>
       </c>
@@ -14991,7 +14994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>639</v>
       </c>
@@ -15029,7 +15032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>641</v>
       </c>
@@ -15067,7 +15070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>643</v>
       </c>
@@ -15105,7 +15108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>645</v>
       </c>
@@ -15143,7 +15146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>647</v>
       </c>
@@ -15181,7 +15184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>649</v>
       </c>
@@ -15219,7 +15222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>651</v>
       </c>
@@ -15257,7 +15260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>653</v>
       </c>
@@ -15295,7 +15298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>655</v>
       </c>
@@ -15333,7 +15336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>657</v>
       </c>
@@ -15371,7 +15374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>659</v>
       </c>
@@ -15409,7 +15412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>661</v>
       </c>
@@ -15447,7 +15450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>664</v>
       </c>
@@ -15485,7 +15488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>666</v>
       </c>
@@ -15523,7 +15526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>668</v>
       </c>
@@ -15561,7 +15564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>669</v>
       </c>
@@ -15599,7 +15602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>671</v>
       </c>
@@ -15637,7 +15640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>673</v>
       </c>
@@ -15675,7 +15678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>675</v>
       </c>
@@ -15713,7 +15716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>677</v>
       </c>
@@ -15751,7 +15754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
         <v>679</v>
       </c>
@@ -15789,7 +15792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>680</v>
       </c>
@@ -15827,7 +15830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>682</v>
       </c>
@@ -15865,7 +15868,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
         <v>684</v>
       </c>
@@ -15903,7 +15906,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>686</v>
       </c>
@@ -15941,7 +15944,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
         <v>688</v>
       </c>
@@ -15979,7 +15982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>690</v>
       </c>
@@ -16017,7 +16020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
         <v>692</v>
       </c>
@@ -16055,7 +16058,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="4" t="s">
         <v>694</v>
       </c>
@@ -16093,7 +16096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>696</v>
       </c>
@@ -16131,7 +16134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="4" t="s">
         <v>698</v>
       </c>
@@ -16169,7 +16172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
         <v>700</v>
       </c>
@@ -16207,7 +16210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="4" t="s">
         <v>702</v>
       </c>
@@ -16245,7 +16248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
         <v>704</v>
       </c>
@@ -16283,7 +16286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="4" t="s">
         <v>706</v>
       </c>
@@ -16321,7 +16324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
         <v>708</v>
       </c>
@@ -16359,7 +16362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="4" t="s">
         <v>710</v>
       </c>
@@ -16397,7 +16400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
         <v>712</v>
       </c>
@@ -16435,7 +16438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>713</v>
       </c>
@@ -16473,7 +16476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
         <v>715</v>
       </c>
@@ -16511,7 +16514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="4" t="s">
         <v>718</v>
       </c>
@@ -16549,7 +16552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
         <v>720</v>
       </c>
@@ -16587,7 +16590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="4" t="s">
         <v>722</v>
       </c>
@@ -16625,7 +16628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>724</v>
       </c>
@@ -16663,7 +16666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="4" t="s">
         <v>726</v>
       </c>
@@ -16701,7 +16704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>728</v>
       </c>
@@ -16739,7 +16742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
         <v>730</v>
       </c>
@@ -16777,7 +16780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>732</v>
       </c>
@@ -16815,7 +16818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="4" t="s">
         <v>734</v>
       </c>
@@ -16853,7 +16856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>736</v>
       </c>
@@ -16891,7 +16894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="4" t="s">
         <v>738</v>
       </c>
@@ -16929,7 +16932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>740</v>
       </c>
@@ -16967,7 +16970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="4" t="s">
         <v>742</v>
       </c>
@@ -17005,7 +17008,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>744</v>
       </c>
@@ -17043,7 +17046,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="4" t="s">
         <v>746</v>
       </c>
@@ -17081,7 +17084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>748</v>
       </c>
@@ -17119,7 +17122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="4" t="s">
         <v>750</v>
       </c>
@@ -17157,7 +17160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>751</v>
       </c>
@@ -17195,7 +17198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="4" t="s">
         <v>753</v>
       </c>
@@ -17233,7 +17236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>755</v>
       </c>
@@ -17271,7 +17274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="4" t="s">
         <v>757</v>
       </c>
@@ -17309,7 +17312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>759</v>
       </c>
@@ -17347,7 +17350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="4" t="s">
         <v>761</v>
       </c>
@@ -17385,7 +17388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
         <v>763</v>
       </c>
@@ -17423,7 +17426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="4" t="s">
         <v>764</v>
       </c>
@@ -17461,7 +17464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
         <v>766</v>
       </c>
@@ -17499,7 +17502,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="4" t="s">
         <v>768</v>
       </c>
@@ -17537,7 +17540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
         <v>770</v>
       </c>
@@ -17575,7 +17578,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="4" t="s">
         <v>772</v>
       </c>
@@ -17613,7 +17616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="s">
         <v>774</v>
       </c>
@@ -17651,7 +17654,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="4" t="s">
         <v>776</v>
       </c>
@@ -17689,7 +17692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="s">
         <v>778</v>
       </c>
@@ -17727,7 +17730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="4" t="s">
         <v>780</v>
       </c>
@@ -17765,7 +17768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
         <v>782</v>
       </c>
@@ -17803,7 +17806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
         <v>784</v>
       </c>
@@ -17841,7 +17844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
         <v>786</v>
       </c>
@@ -17879,7 +17882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
         <v>787</v>
       </c>
@@ -17917,7 +17920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
         <v>789</v>
       </c>
@@ -17955,7 +17958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="4" t="s">
         <v>791</v>
       </c>
@@ -17993,7 +17996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
         <v>793</v>
       </c>
@@ -18031,7 +18034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="4" t="s">
         <v>795</v>
       </c>
@@ -18069,7 +18072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
         <v>797</v>
       </c>
@@ -18107,7 +18110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="4" t="s">
         <v>799</v>
       </c>
@@ -18145,7 +18148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
         <v>801</v>
       </c>
@@ -18183,7 +18186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
         <v>803</v>
       </c>
@@ -18221,7 +18224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
         <v>805</v>
       </c>
@@ -18259,7 +18262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="4" t="s">
         <v>807</v>
       </c>
@@ -18297,7 +18300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
         <v>809</v>
       </c>
@@ -18335,7 +18338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="4" t="s">
         <v>811</v>
       </c>
@@ -18373,7 +18376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
         <v>813</v>
       </c>
@@ -18411,7 +18414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
         <v>815</v>
       </c>
@@ -18449,7 +18452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="s">
         <v>817</v>
       </c>
@@ -18487,7 +18490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>819</v>
       </c>
@@ -18525,7 +18528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
         <v>821</v>
       </c>
@@ -18563,7 +18566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="4" t="s">
         <v>823</v>
       </c>
@@ -18601,7 +18604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>825</v>
       </c>
@@ -18639,7 +18642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>827</v>
       </c>
@@ -18677,7 +18680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>828</v>
       </c>
@@ -18715,7 +18718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
         <v>830</v>
       </c>
@@ -18753,7 +18756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
         <v>832</v>
       </c>
@@ -18791,7 +18794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
         <v>834</v>
       </c>
@@ -18829,7 +18832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
         <v>836</v>
       </c>
@@ -18867,7 +18870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="4" t="s">
         <v>838</v>
       </c>
@@ -18905,7 +18908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
         <v>840</v>
       </c>
@@ -18943,7 +18946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="4" t="s">
         <v>842</v>
       </c>
@@ -18981,7 +18984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>844</v>
       </c>
@@ -19019,7 +19022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="4" t="s">
         <v>846</v>
       </c>
@@ -19057,7 +19060,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>848</v>
       </c>
@@ -19095,7 +19098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
         <v>850</v>
       </c>
@@ -19133,7 +19136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="7" t="s">
         <v>852</v>
       </c>
@@ -19171,7 +19174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
         <v>854</v>
       </c>
@@ -19209,7 +19212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="7" t="s">
         <v>856</v>
       </c>
@@ -19247,7 +19250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
         <v>858</v>
       </c>
@@ -19285,7 +19288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
         <v>860</v>
       </c>
@@ -19323,7 +19326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="4" t="s">
         <v>862</v>
       </c>
@@ -19361,7 +19364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="7" t="s">
         <v>864</v>
       </c>
@@ -19399,7 +19402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
         <v>866</v>
       </c>
@@ -19437,7 +19440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="7" t="s">
         <v>868</v>
       </c>
@@ -19475,7 +19478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="4" t="s">
         <v>870</v>
       </c>
@@ -19513,7 +19516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="7" t="s">
         <v>872</v>
       </c>
@@ -19551,7 +19554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="4" t="s">
         <v>874</v>
       </c>
@@ -19589,7 +19592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="7" t="s">
         <v>876</v>
       </c>
@@ -19627,7 +19630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>878</v>
       </c>
@@ -19665,7 +19668,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="7" t="s">
         <v>880</v>
       </c>
@@ -19703,7 +19706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
         <v>882</v>
       </c>
@@ -19741,7 +19744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>884</v>
       </c>
@@ -19779,7 +19782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
         <v>886</v>
       </c>
@@ -19817,7 +19820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
         <v>888</v>
       </c>
@@ -19855,7 +19858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="4" t="s">
         <v>890</v>
       </c>
@@ -19893,7 +19896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
         <v>892</v>
       </c>
@@ -19931,7 +19934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="4" t="s">
         <v>894</v>
       </c>
@@ -19969,7 +19972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
         <v>896</v>
       </c>
@@ -20007,7 +20010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
         <v>897</v>
       </c>
@@ -20045,7 +20048,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
         <v>45</v>
       </c>
@@ -20083,7 +20086,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
         <v>899</v>
       </c>
@@ -20121,7 +20124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
         <v>901</v>
       </c>
@@ -20159,7 +20162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="4" t="s">
         <v>903</v>
       </c>
@@ -20197,7 +20200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
         <v>905</v>
       </c>
@@ -20235,7 +20238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>907</v>
       </c>
@@ -20273,7 +20276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="7" t="s">
         <v>908</v>
       </c>
@@ -20311,7 +20314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
         <v>910</v>
       </c>
@@ -20349,7 +20352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
         <v>912</v>
       </c>
@@ -20387,7 +20390,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="4" t="s">
         <v>914</v>
       </c>
@@ -20425,7 +20428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>916</v>
       </c>
@@ -20463,7 +20466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="4" t="s">
         <v>918</v>
       </c>
@@ -20501,7 +20504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>919</v>
       </c>
@@ -20539,7 +20542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="4" t="s">
         <v>921</v>
       </c>
@@ -20577,7 +20580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>923</v>
       </c>
@@ -20615,7 +20618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
         <v>925</v>
       </c>
@@ -20653,7 +20656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>927</v>
       </c>
@@ -20691,7 +20694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="4" t="s">
         <v>929</v>
       </c>
@@ -20729,7 +20732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>930</v>
       </c>
@@ -20767,7 +20770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="4" t="s">
         <v>932</v>
       </c>
@@ -20805,7 +20808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="7" t="s">
         <v>934</v>
       </c>
@@ -20843,7 +20846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="4" t="s">
         <v>936</v>
       </c>
@@ -20881,7 +20884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>938</v>
       </c>
@@ -20919,7 +20922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
         <v>940</v>
       </c>
@@ -20957,7 +20960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>942</v>
       </c>
@@ -20995,7 +20998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="4" t="s">
         <v>944</v>
       </c>
@@ -21033,7 +21036,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>946</v>
       </c>
@@ -21071,7 +21074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
         <v>948</v>
       </c>
@@ -21109,7 +21112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="7" t="s">
         <v>949</v>
       </c>
@@ -21147,7 +21150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="4" t="s">
         <v>951</v>
       </c>
@@ -21185,7 +21188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="7" t="s">
         <v>953</v>
       </c>
@@ -21223,7 +21226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
         <v>955</v>
       </c>
@@ -21261,7 +21264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="7" t="s">
         <v>956</v>
       </c>
@@ -21299,7 +21302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="4" t="s">
         <v>958</v>
       </c>
@@ -21337,7 +21340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
         <v>960</v>
       </c>
@@ -21375,7 +21378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="4" t="s">
         <v>962</v>
       </c>
@@ -21413,7 +21416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="7" t="s">
         <v>963</v>
       </c>
@@ -21451,7 +21454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="4" t="s">
         <v>965</v>
       </c>
@@ -21489,7 +21492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="7" t="s">
         <v>967</v>
       </c>
@@ -21527,7 +21530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>969</v>
       </c>
@@ -21565,7 +21568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
         <v>971</v>
       </c>
@@ -21603,7 +21606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="4" t="s">
         <v>973</v>
       </c>
@@ -21641,7 +21644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="7" t="s">
         <v>975</v>
       </c>
@@ -21679,7 +21682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="4" t="s">
         <v>977</v>
       </c>
@@ -21717,7 +21720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
         <v>979</v>
       </c>
@@ -21755,7 +21758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
         <v>981</v>
       </c>
@@ -21793,7 +21796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>983</v>
       </c>
@@ -21831,7 +21834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
         <v>985</v>
       </c>
@@ -21869,7 +21872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
         <v>987</v>
       </c>
@@ -21907,7 +21910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="4" t="s">
         <v>989</v>
       </c>
@@ -21945,7 +21948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="7" t="s">
         <v>991</v>
       </c>
@@ -21983,7 +21986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="4" t="s">
         <v>993</v>
       </c>
@@ -22021,7 +22024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="7" t="s">
         <v>995</v>
       </c>
@@ -22059,7 +22062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="4" t="s">
         <v>997</v>
       </c>
@@ -22097,7 +22100,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
         <v>999</v>
       </c>
@@ -22135,7 +22138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
         <v>1001</v>
       </c>
@@ -22173,7 +22176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="7" t="s">
         <v>1003</v>
       </c>
@@ -22211,7 +22214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="4" t="s">
         <v>1005</v>
       </c>
@@ -22249,7 +22252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="7" t="s">
         <v>1007</v>
       </c>
@@ -22287,7 +22290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="4" t="s">
         <v>1009</v>
       </c>
@@ -22325,7 +22328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
         <v>1011</v>
       </c>
@@ -22363,7 +22366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="4" t="s">
         <v>1013</v>
       </c>
@@ -22401,7 +22404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="7" t="s">
         <v>1015</v>
       </c>
@@ -22439,7 +22442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
         <v>1017</v>
       </c>
@@ -22477,7 +22480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="7" t="s">
         <v>1019</v>
       </c>
@@ -22515,7 +22518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="4" t="s">
         <v>1021</v>
       </c>
@@ -22553,7 +22556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
         <v>1023</v>
       </c>
@@ -22591,7 +22594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="4" t="s">
         <v>1025</v>
       </c>
@@ -22629,7 +22632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
         <v>1027</v>
       </c>
@@ -22667,7 +22670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="4" t="s">
         <v>1029</v>
       </c>
@@ -22705,7 +22708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="7" t="s">
         <v>1031</v>
       </c>
@@ -22743,7 +22746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="4" t="s">
         <v>1033</v>
       </c>
@@ -22781,7 +22784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="7" t="s">
         <v>1035</v>
       </c>
@@ -22819,7 +22822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
         <v>1037</v>
       </c>
@@ -22857,7 +22860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
         <v>1039</v>
       </c>
@@ -22895,7 +22898,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="4" t="s">
         <v>1041</v>
       </c>
@@ -22933,7 +22936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="7" t="s">
         <v>1043</v>
       </c>
@@ -22971,7 +22974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="4" t="s">
         <v>1045</v>
       </c>
@@ -23009,7 +23012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
         <v>1047</v>
       </c>
@@ -23047,7 +23050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="4" t="s">
         <v>1049</v>
       </c>
@@ -23085,7 +23088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="7" t="s">
         <v>1051</v>
       </c>
@@ -23123,7 +23126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="4" t="s">
         <v>1053</v>
       </c>
@@ -23161,7 +23164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="7" t="s">
         <v>1055</v>
       </c>
@@ -23199,7 +23202,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="4" t="s">
         <v>1057</v>
       </c>
@@ -23237,7 +23240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>1059</v>
       </c>
@@ -23275,7 +23278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="4" t="s">
         <v>1061</v>
       </c>
@@ -23313,7 +23316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="7" t="s">
         <v>1063</v>
       </c>
@@ -23351,7 +23354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
         <v>1065</v>
       </c>
@@ -23389,7 +23392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="7" t="s">
         <v>1067</v>
       </c>
@@ -23427,7 +23430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="4" t="s">
         <v>1069</v>
       </c>
@@ -23465,7 +23468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="7" t="s">
         <v>1071</v>
       </c>
@@ -23503,7 +23506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="4" t="s">
         <v>1073</v>
       </c>
@@ -23541,7 +23544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="7" t="s">
         <v>1075</v>
       </c>
@@ -23579,7 +23582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="4" t="s">
         <v>1077</v>
       </c>
@@ -23617,7 +23620,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
         <v>1079</v>
       </c>
@@ -23655,7 +23658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="4" t="s">
         <v>1080</v>
       </c>
@@ -23693,7 +23696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
         <v>1082</v>
       </c>
@@ -23731,7 +23734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="4" t="s">
         <v>1083</v>
       </c>
@@ -23769,7 +23772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="7" t="s">
         <v>1085</v>
       </c>
@@ -23807,7 +23810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="4" t="s">
         <v>1087</v>
       </c>
@@ -23845,7 +23848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="7" t="s">
         <v>1089</v>
       </c>
@@ -23883,7 +23886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="4" t="s">
         <v>1091</v>
       </c>
@@ -23921,7 +23924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="7" t="s">
         <v>1093</v>
       </c>
@@ -23959,7 +23962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="4" t="s">
         <v>1095</v>
       </c>
@@ -23997,7 +24000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="7" t="s">
         <v>1096</v>
       </c>
@@ -24035,7 +24038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="4" t="s">
         <v>1098</v>
       </c>
@@ -24073,7 +24076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="7" t="s">
         <v>1100</v>
       </c>
@@ -24111,7 +24114,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="4" t="s">
         <v>1102</v>
       </c>
@@ -24149,7 +24152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="7" t="s">
         <v>1104</v>
       </c>
@@ -24187,7 +24190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="4" t="s">
         <v>1106</v>
       </c>
@@ -24225,7 +24228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="7" t="s">
         <v>1108</v>
       </c>
@@ -24263,7 +24266,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="4" t="s">
         <v>1110</v>
       </c>
@@ -24301,7 +24304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
         <v>1112</v>
       </c>
@@ -24339,7 +24342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="4" t="s">
         <v>1113</v>
       </c>
@@ -24377,7 +24380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="7" t="s">
         <v>1114</v>
       </c>
@@ -24415,7 +24418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="4" t="s">
         <v>1116</v>
       </c>
@@ -24453,7 +24456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
         <v>1118</v>
       </c>
@@ -24491,7 +24494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="4" t="s">
         <v>1120</v>
       </c>
@@ -24529,7 +24532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="7" t="s">
         <v>1122</v>
       </c>
@@ -24567,7 +24570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="4" t="s">
         <v>1124</v>
       </c>
@@ -24605,7 +24608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="7" t="s">
         <v>1126</v>
       </c>
@@ -24643,7 +24646,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="4" t="s">
         <v>1127</v>
       </c>
@@ -24681,7 +24684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>1129</v>
       </c>
@@ -24719,7 +24722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="4" t="s">
         <v>1131</v>
       </c>
@@ -24757,7 +24760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="7" t="s">
         <v>1133</v>
       </c>
@@ -24795,7 +24798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="4" t="s">
         <v>1135</v>
       </c>
@@ -24833,7 +24836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="7" t="s">
         <v>1136</v>
       </c>
@@ -24871,7 +24874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="4" t="s">
         <v>1138</v>
       </c>
@@ -24909,7 +24912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
         <v>1140</v>
       </c>
@@ -24947,7 +24950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="4" t="s">
         <v>1142</v>
       </c>
@@ -24985,7 +24988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="7" t="s">
         <v>1144</v>
       </c>
@@ -25023,7 +25026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="4" t="s">
         <v>1146</v>
       </c>
@@ -25061,7 +25064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="7" t="s">
         <v>1148</v>
       </c>
@@ -25099,7 +25102,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="4" t="s">
         <v>1150</v>
       </c>
@@ -25137,7 +25140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
         <v>1152</v>
       </c>
@@ -25175,7 +25178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="4" t="s">
         <v>1154</v>
       </c>
@@ -25213,7 +25216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="7" t="s">
         <v>1156</v>
       </c>
@@ -25251,7 +25254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="4" t="s">
         <v>1158</v>
       </c>
@@ -25289,7 +25292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="7" t="s">
         <v>1160</v>
       </c>
@@ -25327,7 +25330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="4" t="s">
         <v>1162</v>
       </c>
@@ -25365,7 +25368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="7" t="s">
         <v>1164</v>
       </c>
@@ -25403,7 +25406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="4" t="s">
         <v>1166</v>
       </c>
@@ -25441,7 +25444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
         <v>1168</v>
       </c>
@@ -25479,7 +25482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="4" t="s">
         <v>1170</v>
       </c>
@@ -25517,7 +25520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
         <v>1172</v>
       </c>
@@ -25555,7 +25558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="4" t="s">
         <v>1174</v>
       </c>
@@ -25593,7 +25596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" s="7" t="s">
         <v>1176</v>
       </c>
@@ -25631,7 +25634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" s="4" t="s">
         <v>1178</v>
       </c>
@@ -25669,7 +25672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" s="7" t="s">
         <v>1180</v>
       </c>
@@ -25707,7 +25710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" s="4" t="s">
         <v>1182</v>
       </c>
@@ -25745,7 +25748,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" s="7" t="s">
         <v>1184</v>
       </c>
@@ -25783,7 +25786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" s="4" t="s">
         <v>1186</v>
       </c>
@@ -25821,7 +25824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" s="7" t="s">
         <v>1188</v>
       </c>
@@ -25859,7 +25862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" s="4" t="s">
         <v>1190</v>
       </c>
@@ -25897,7 +25900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="7" t="s">
         <v>1192</v>
       </c>
@@ -25935,7 +25938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="4" t="s">
         <v>1194</v>
       </c>
@@ -25973,7 +25976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" s="7" t="s">
         <v>1196</v>
       </c>
@@ -26011,7 +26014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" s="4" t="s">
         <v>1198</v>
       </c>
@@ -26049,7 +26052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" s="7" t="s">
         <v>1200</v>
       </c>
@@ -26087,7 +26090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" s="4" t="s">
         <v>1201</v>
       </c>
@@ -26125,7 +26128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" s="7" t="s">
         <v>1203</v>
       </c>
@@ -26163,7 +26166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" s="4" t="s">
         <v>1205</v>
       </c>
@@ -26201,7 +26204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" s="7" t="s">
         <v>1207</v>
       </c>
@@ -26239,7 +26242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" s="4" t="s">
         <v>1209</v>
       </c>
@@ -26277,7 +26280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" s="7" t="s">
         <v>1211</v>
       </c>
@@ -26315,7 +26318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" s="4" t="s">
         <v>1213</v>
       </c>
@@ -26353,7 +26356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="7" t="s">
         <v>1215</v>
       </c>
@@ -26391,7 +26394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="4" t="s">
         <v>1217</v>
       </c>
@@ -26429,7 +26432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" s="7" t="s">
         <v>1218</v>
       </c>
@@ -26467,7 +26470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" s="4" t="s">
         <v>1219</v>
       </c>
@@ -26505,7 +26508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" s="7" t="s">
         <v>1221</v>
       </c>
@@ -26543,7 +26546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" s="4" t="s">
         <v>1223</v>
       </c>
@@ -26581,7 +26584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" s="7" t="s">
         <v>1225</v>
       </c>
@@ -26619,7 +26622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" s="4" t="s">
         <v>1227</v>
       </c>
@@ -26657,7 +26660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" s="7" t="s">
         <v>1229</v>
       </c>
@@ -26695,7 +26698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" s="4" t="s">
         <v>1231</v>
       </c>
@@ -26733,7 +26736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" s="7" t="s">
         <v>1233</v>
       </c>
@@ -26771,7 +26774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" s="4" t="s">
         <v>1235</v>
       </c>
@@ -26809,7 +26812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" s="7" t="s">
         <v>1237</v>
       </c>
@@ -26847,7 +26850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" s="4" t="s">
         <v>1239</v>
       </c>
@@ -26885,7 +26888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
         <v>1241</v>
       </c>
@@ -26923,7 +26926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" s="4" t="s">
         <v>1243</v>
       </c>
@@ -26961,7 +26964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" s="7" t="s">
         <v>1245</v>
       </c>
@@ -26999,7 +27002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" s="4" t="s">
         <v>1247</v>
       </c>
@@ -27037,7 +27040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" s="7" t="s">
         <v>1249</v>
       </c>
@@ -27075,7 +27078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" s="4" t="s">
         <v>1251</v>
       </c>
@@ -27113,7 +27116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" s="7" t="s">
         <v>1253</v>
       </c>
@@ -27151,7 +27154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" s="4" t="s">
         <v>1255</v>
       </c>
@@ -27189,7 +27192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" s="7" t="s">
         <v>1257</v>
       </c>
@@ -27227,7 +27230,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" s="4" t="s">
         <v>1259</v>
       </c>
@@ -27265,7 +27268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" s="7" t="s">
         <v>1261</v>
       </c>
@@ -27303,7 +27306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" s="4" t="s">
         <v>1263</v>
       </c>
@@ -27341,7 +27344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" s="7" t="s">
         <v>1265</v>
       </c>
@@ -27379,7 +27382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" s="4" t="s">
         <v>1267</v>
       </c>
@@ -27417,7 +27420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" s="7" t="s">
         <v>1269</v>
       </c>
@@ -27455,7 +27458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" s="4" t="s">
         <v>1271</v>
       </c>
@@ -27493,7 +27496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
         <v>1273</v>
       </c>
@@ -27531,7 +27534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" s="4" t="s">
         <v>1275</v>
       </c>
@@ -27569,7 +27572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" s="7" t="s">
         <v>1277</v>
       </c>
@@ -27607,7 +27610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" s="4" t="s">
         <v>1279</v>
       </c>
@@ -27645,7 +27648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" s="7" t="s">
         <v>1281</v>
       </c>
@@ -27683,7 +27686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" s="4" t="s">
         <v>1283</v>
       </c>
@@ -27721,7 +27724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
         <v>1285</v>
       </c>
@@ -27759,7 +27762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" s="4" t="s">
         <v>1287</v>
       </c>
@@ -27797,7 +27800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" s="7" t="s">
         <v>1289</v>
       </c>
@@ -27835,7 +27838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" s="4" t="s">
         <v>1291</v>
       </c>
@@ -27873,7 +27876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" s="7" t="s">
         <v>1293</v>
       </c>
@@ -27911,7 +27914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" s="4" t="s">
         <v>1295</v>
       </c>
@@ -27949,7 +27952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" s="7" t="s">
         <v>1297</v>
       </c>
@@ -27987,7 +27990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" s="4" t="s">
         <v>1299</v>
       </c>
@@ -28025,7 +28028,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" s="7" t="s">
         <v>1301</v>
       </c>
@@ -28063,7 +28066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" s="4" t="s">
         <v>1303</v>
       </c>
@@ -28101,7 +28104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621" s="7" t="s">
         <v>1305</v>
       </c>
@@ -28139,7 +28142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622" s="4" t="s">
         <v>1306</v>
       </c>
@@ -28177,7 +28180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623" s="7" t="s">
         <v>1308</v>
       </c>
@@ -28215,7 +28218,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624" s="4" t="s">
         <v>1310</v>
       </c>
@@ -28253,7 +28256,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625" s="7" t="s">
         <v>1312</v>
       </c>
@@ -28291,7 +28294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626" s="4" t="s">
         <v>1314</v>
       </c>
@@ -28329,7 +28332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627" s="7" t="s">
         <v>1316</v>
       </c>
@@ -28367,7 +28370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628" s="4" t="s">
         <v>1318</v>
       </c>
@@ -28405,7 +28408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629" s="7" t="s">
         <v>1320</v>
       </c>
@@ -28443,7 +28446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630" s="4" t="s">
         <v>1322</v>
       </c>
@@ -28481,7 +28484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" s="7" t="s">
         <v>1323</v>
       </c>
@@ -28519,7 +28522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632" s="4" t="s">
         <v>1325</v>
       </c>
@@ -28557,7 +28560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633" s="7" t="s">
         <v>1327</v>
       </c>
@@ -28595,7 +28598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634" s="4" t="s">
         <v>1329</v>
       </c>
@@ -28633,7 +28636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635" s="7" t="s">
         <v>1331</v>
       </c>
@@ -28671,7 +28674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636" s="4" t="s">
         <v>1333</v>
       </c>
@@ -28709,7 +28712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637" s="7" t="s">
         <v>1334</v>
       </c>
@@ -28747,7 +28750,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638" s="4" t="s">
         <v>1336</v>
       </c>
@@ -28785,7 +28788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639" s="7" t="s">
         <v>1337</v>
       </c>
@@ -28823,7 +28826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640" s="4" t="s">
         <v>1339</v>
       </c>
@@ -28861,7 +28864,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641" s="7" t="s">
         <v>1341</v>
       </c>
@@ -28899,7 +28902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642" s="4" t="s">
         <v>1343</v>
       </c>
@@ -28937,7 +28940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643" s="7" t="s">
         <v>1345</v>
       </c>
@@ -28975,7 +28978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644" s="4" t="s">
         <v>1347</v>
       </c>
@@ -29013,7 +29016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645" s="7" t="s">
         <v>1349</v>
       </c>
@@ -29051,7 +29054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646" s="4" t="s">
         <v>1351</v>
       </c>
@@ -29089,7 +29092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A647" s="7" t="s">
         <v>1353</v>
       </c>
@@ -29127,7 +29130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A648" s="4" t="s">
         <v>1355</v>
       </c>
@@ -29165,7 +29168,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A649" s="7" t="s">
         <v>1357</v>
       </c>
@@ -29203,7 +29206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A650" s="4" t="s">
         <v>1359</v>
       </c>
@@ -29241,7 +29244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A651" s="7" t="s">
         <v>1361</v>
       </c>
@@ -29279,7 +29282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A652" s="4" t="s">
         <v>1363</v>
       </c>
@@ -29317,7 +29320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A653" s="7" t="s">
         <v>1365</v>
       </c>
@@ -29355,7 +29358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A654" s="4" t="s">
         <v>1367</v>
       </c>
@@ -29399,6 +29402,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B63BB012C9D1B24489D49F4F0C2CE25A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="48d45bcbda7514db172a20783bced5f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b0532637-0502-487b-9754-da6d5bfa02b5" xmlns:ns4="0cecb498-8be2-4858-809e-0b68e7aad605" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="343067db9ee4646e1fab8af0b92e901f" ns3:_="" ns4:_="">
     <xsd:import namespace="b0532637-0502-487b-9754-da6d5bfa02b5"/>
@@ -29621,22 +29639,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63087893-848E-4E3D-8887-43B872425983}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="0cecb498-8be2-4858-809e-0b68e7aad605"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b0532637-0502-487b-9754-da6d5bfa02b5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663172BB-2591-462D-A4F0-AD731217FCEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C5EB71D-DA8C-40DD-AD08-9A78526E4101}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29653,29 +29681,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663172BB-2591-462D-A4F0-AD731217FCEC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63087893-848E-4E3D-8887-43B872425983}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b0532637-0502-487b-9754-da6d5bfa02b5"/>
-    <ds:schemaRef ds:uri="0cecb498-8be2-4858-809e-0b68e7aad605"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>